--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-304-R03A 1#制袋机运行记录.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="14895" windowHeight="7710"/>
   </bookViews>
@@ -572,8 +577,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,7 +671,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -819,13 +824,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +890,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,36 +937,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -898,11 +953,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -944,7 +1007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,9 +1039,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1010,6 +1074,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1185,14 +1250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
     <col min="2" max="7" width="14.375" style="3" customWidth="1"/>
@@ -1200,7 +1265,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1214,162 +1279,174 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="15">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="57" customHeight="1">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A14" s="19" t="s">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="33" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="18" t="s">
         <v>15</v>
       </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1379,12 +1456,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1392,12 +1469,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
